--- a/FitnessData/dynamic16/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic16/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>302.22</v>
+        <v>326.07</v>
       </c>
       <c r="B2" t="n">
-        <v>322.02</v>
+        <v>312.11</v>
       </c>
       <c r="C2" t="n">
-        <v>311.64</v>
+        <v>309.36</v>
       </c>
       <c r="D2" t="n">
-        <v>333.96</v>
+        <v>302.72</v>
       </c>
       <c r="E2" t="n">
-        <v>315.13</v>
+        <v>309.06</v>
       </c>
       <c r="F2" t="n">
-        <v>342.7</v>
+        <v>315.36</v>
       </c>
       <c r="G2" t="n">
-        <v>318.8</v>
+        <v>319.77</v>
       </c>
       <c r="H2" t="n">
-        <v>321.23</v>
+        <v>326.63</v>
       </c>
       <c r="I2" t="n">
-        <v>315.54</v>
+        <v>321.98</v>
       </c>
       <c r="J2" t="n">
-        <v>316.14</v>
+        <v>326.93</v>
       </c>
       <c r="K2" t="n">
-        <v>315.88</v>
+        <v>329.08</v>
       </c>
       <c r="L2" t="n">
-        <v>332.37</v>
+        <v>298.28</v>
       </c>
       <c r="M2" t="n">
-        <v>319.79</v>
+        <v>298.99</v>
       </c>
       <c r="N2" t="n">
-        <v>317.91</v>
+        <v>306.63</v>
       </c>
       <c r="O2" t="n">
-        <v>322.28</v>
+        <v>321.4</v>
       </c>
       <c r="P2" t="n">
-        <v>335.89</v>
+        <v>314.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>307.9</v>
+        <v>298.55</v>
       </c>
       <c r="R2" t="n">
-        <v>318.28</v>
+        <v>313.27</v>
       </c>
       <c r="S2" t="n">
-        <v>314.91</v>
+        <v>318.26</v>
       </c>
       <c r="T2" t="n">
-        <v>325.74</v>
+        <v>307.69</v>
       </c>
       <c r="U2" t="n">
-        <v>302.22</v>
+        <v>298.28</v>
       </c>
       <c r="V2" t="n">
-        <v>320.5165</v>
+        <v>313.843</v>
       </c>
       <c r="W2" t="n">
-        <v>9.724395949309514</v>
+        <v>9.878417782961842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>786.89</v>
+        <v>733.3</v>
       </c>
       <c r="B3" t="n">
-        <v>735.54</v>
+        <v>773.55</v>
       </c>
       <c r="C3" t="n">
-        <v>727.39</v>
+        <v>772.34</v>
       </c>
       <c r="D3" t="n">
-        <v>725.1</v>
+        <v>743.72</v>
       </c>
       <c r="E3" t="n">
-        <v>753.47</v>
+        <v>736.13</v>
       </c>
       <c r="F3" t="n">
-        <v>780.6799999999999</v>
+        <v>731.76</v>
       </c>
       <c r="G3" t="n">
-        <v>756.86</v>
+        <v>734.83</v>
       </c>
       <c r="H3" t="n">
-        <v>770.88</v>
+        <v>768.22</v>
       </c>
       <c r="I3" t="n">
-        <v>716.62</v>
+        <v>724.55</v>
       </c>
       <c r="J3" t="n">
-        <v>766.42</v>
+        <v>728.54</v>
       </c>
       <c r="K3" t="n">
-        <v>724.22</v>
+        <v>774.2</v>
       </c>
       <c r="L3" t="n">
-        <v>718.47</v>
+        <v>749.04</v>
       </c>
       <c r="M3" t="n">
-        <v>753.11</v>
+        <v>770.11</v>
       </c>
       <c r="N3" t="n">
-        <v>762.34</v>
+        <v>757.51</v>
       </c>
       <c r="O3" t="n">
-        <v>749.01</v>
+        <v>724.05</v>
       </c>
       <c r="P3" t="n">
-        <v>741.37</v>
+        <v>708.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>760.5599999999999</v>
+        <v>707.24</v>
       </c>
       <c r="R3" t="n">
-        <v>743.9400000000001</v>
+        <v>709.67</v>
       </c>
       <c r="S3" t="n">
-        <v>788.61</v>
+        <v>738.0700000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>759.67</v>
+        <v>704.0700000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>716.62</v>
+        <v>704.0700000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>751.0575000000001</v>
+        <v>739.4905</v>
       </c>
       <c r="W3" t="n">
-        <v>21.9180650978041</v>
+        <v>23.47944374733377</v>
       </c>
     </row>
   </sheetData>
